--- a/docs/data/sokobond_results_final.xlsx
+++ b/docs/data/sokobond_results_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tomas\Uni\3ano\2semestre\AI\IA-project\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92325937-F461-46A1-8C06-9FD3F54B5649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F3B86-F847-4495-942F-6BC628232897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="16440" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levellvl1.txt" sheetId="2" r:id="rId1"/>
@@ -97,13 +97,13 @@
     <t>Manhattam Distance</t>
   </si>
   <si>
-    <t>Free Electrons</t>
-  </si>
-  <si>
     <t>Minimize Free Electrons</t>
   </si>
   <si>
     <t>IDS</t>
+  </si>
+  <si>
+    <t>Prioritize Free Electrons</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -726,7 +726,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -868,7 +868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="410616256"/>
@@ -927,7 +927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="410613376"/>
@@ -968,7 +968,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -982,7 +982,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1044,7 +1044,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1263,7 +1263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="430751328"/>
@@ -1322,7 +1322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="160891408"/>
@@ -1364,7 +1364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1401,7 +1401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1415,7 +1415,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1484,7 +1484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1528,7 +1528,7 @@
                   <c:v>Manhattam Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Free Electrons</c:v>
+                  <c:v>Prioritize Free Electrons</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Minimize Free Electrons</c:v>
@@ -1614,7 +1614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400377776"/>
@@ -1673,7 +1673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400378256"/>
@@ -1721,7 +1721,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1735,7 +1735,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1804,7 +1804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1848,7 +1848,7 @@
                   <c:v>Manhattam Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Free Electrons</c:v>
+                  <c:v>Prioritize Free Electrons</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Minimize Free Electrons</c:v>
@@ -1913,7 +1913,7 @@
                   <c:v>Manhattam Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Free Electrons</c:v>
+                  <c:v>Prioritize Free Electrons</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Minimize Free Electrons</c:v>
@@ -1999,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414826544"/>
@@ -2058,7 +2058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="414829424"/>
@@ -2100,7 +2100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2137,7 +2137,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4932,16 +4932,16 @@
       <selection activeCell="E11" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5144,16 +5144,16 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5356,16 +5356,16 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5568,16 +5568,16 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5730,12 +5730,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5768,16 +5768,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5811,12 +5811,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5884,12 +5884,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5906,12 +5906,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5933,16 +5933,16 @@
       <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6145,16 +6145,16 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6357,16 +6357,16 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6565,22 +6565,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A70C1-FB0F-4D9B-8792-F04FF59933A5}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>1304.7777777777778</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>6495.625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1304.7777777777778</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>1709.1111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>2221.4444444444443</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>28538.777777777777</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>14549.428571428571</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>515.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -6806,9 +6806,9 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>51.167031764984131</v>
@@ -6820,7 +6820,7 @@
         <v>14549.428571428571</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1745.1111111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>2772.0509259259256</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -6885,9 +6885,9 @@
         <v>1304.7777777777778</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" ref="B22:D22" si="1">AVERAGE(B5,B3)</f>
@@ -6902,9 +6902,9 @@
         <v>4102.3680555555557</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" ref="B23:D23" si="2">AVERAGE(B6,B4)</f>

--- a/docs/data/sokobond_results_final.xlsx
+++ b/docs/data/sokobond_results_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tomas\Uni\3ano\2semestre\AI\IA-project\docs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F3B86-F847-4495-942F-6BC628232897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53269AD2-133F-43E8-A1A3-804AE8D7BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="781" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="levellvl1.txt" sheetId="2" r:id="rId1"/>
@@ -4929,7 +4929,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A2:E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5082,16 +5082,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.56546592712402344</v>
+        <v>1.0411760807037349</v>
       </c>
       <c r="C9">
-        <v>957</v>
+        <v>821</v>
       </c>
       <c r="D9">
         <v>239</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5099,10 +5099,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1.456379652023315</v>
+        <v>3.1255800724029541</v>
       </c>
       <c r="C10">
-        <v>2356</v>
+        <v>2905</v>
       </c>
       <c r="D10">
         <v>587</v>
@@ -5141,7 +5141,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5294,16 +5294,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8.9251995086669922E-2</v>
+        <v>6.5280914306640625E-2</v>
       </c>
       <c r="C9">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="D9">
         <v>53</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5311,10 +5311,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1673934459686279</v>
+        <v>0.1136868000030518</v>
       </c>
       <c r="C10">
-        <v>342</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>84</v>
@@ -5353,7 +5353,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5506,16 +5506,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.61971569061279297</v>
+        <v>0.1066522598266602</v>
       </c>
       <c r="C9">
-        <v>893</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5523,10 +5523,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>6.9123589992523193</v>
+        <v>6.0331823825836182</v>
       </c>
       <c r="C10">
-        <v>11192</v>
+        <v>4829</v>
       </c>
       <c r="D10">
         <v>2794</v>
@@ -5565,7 +5565,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5930,7 +5930,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6083,16 +6083,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5.3277642726898193</v>
+        <v>2.9751491546630859</v>
       </c>
       <c r="C9">
-        <v>6105</v>
+        <v>1917</v>
       </c>
       <c r="D9">
-        <v>1526</v>
+        <v>560</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6100,10 +6100,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>3.2230885028839111</v>
+        <v>4.9406185150146484</v>
       </c>
       <c r="C10">
-        <v>3965</v>
+        <v>3206</v>
       </c>
       <c r="D10">
         <v>989</v>
@@ -6142,7 +6142,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6295,16 +6295,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>14.258320093154911</v>
+        <v>31.466690063476559</v>
       </c>
       <c r="C9">
-        <v>19005</v>
+        <v>18381</v>
       </c>
       <c r="D9">
         <v>4751</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6312,13 +6312,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>78.80245304107666</v>
+        <v>234.05212116241461</v>
       </c>
       <c r="C10">
-        <v>103562</v>
+        <v>150111</v>
       </c>
       <c r="D10">
-        <v>25886</v>
+        <v>35886</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -6354,7 +6354,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6507,16 +6507,16 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>53.677309036254883</v>
+        <v>76.81000018119812</v>
       </c>
       <c r="C9">
-        <v>57441</v>
+        <v>38417</v>
       </c>
       <c r="D9">
         <v>14360</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6524,13 +6524,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>267.60754871368408</v>
+        <v>396.83302068710333</v>
       </c>
       <c r="C10">
-        <v>286048</v>
+        <v>206549</v>
       </c>
       <c r="D10">
-        <v>71506</v>
+        <v>61506</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -6565,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A70C1-FB0F-4D9B-8792-F04FF59933A5}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6719,15 +6719,15 @@
       </c>
       <c r="B9" s="5">
         <f>AVERAGE(Table2[[#This Row],[Execution time]],Table3[[#This Row],[Execution time]],Table4[[#This Row],[Execution time]],Table1[[#This Row],[Execution time]],Table5[[#This Row],[Execution time]],Table6[[#This Row],[Execution time]],Table7[[#This Row],[Execution time]],Table8[[#This Row],[Execution time]],)</f>
-        <v>120.29746058252123</v>
+        <v>124.51158520910475</v>
       </c>
       <c r="C9" s="5">
         <f>AVERAGE(Table2[[#This Row],[Nodes created]],Table3[[#This Row],[Nodes created]],Table4[[#This Row],[Nodes created]],Table1[[#This Row],[Nodes created]],Table5[[#This Row],[Nodes created]],Table6[[#This Row],[Nodes created]],Table7[[#This Row],[Nodes created]],Table8[[#This Row],[Nodes created]],)</f>
-        <v>114156</v>
+        <v>111388</v>
       </c>
       <c r="D9" s="5">
         <f>AVERAGE(Table2[[#This Row],[Nodes visited]],Table3[[#This Row],[Nodes visited]],Table4[[#This Row],[Nodes visited]],Table1[[#This Row],[Nodes visited]],Table5[[#This Row],[Nodes visited]],Table6[[#This Row],[Nodes visited]],Table7[[#This Row],[Nodes visited]],Table8[[#This Row],[Nodes visited]],)</f>
-        <v>28538.777777777777</v>
+        <v>28409.222222222223</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6736,11 +6736,11 @@
       </c>
       <c r="B10" s="5">
         <f>AVERAGE(Table2[[#This Row],[Execution time]],Table3[[#This Row],[Execution time]],Table4[[#This Row],[Execution time]],Table1[[#This Row],[Execution time]],Table5[[#This Row],[Execution time]],Table6[[#This Row],[Execution time]],Table7[[#This Row],[Execution time]],Table8[[#This Row],[Execution time]],)</f>
-        <v>51.167031764984131</v>
+        <v>92.156887088503169</v>
       </c>
       <c r="C10" s="5">
         <f>AVERAGE(Table2[[#This Row],[Nodes created]],Table3[[#This Row],[Nodes created]],Table4[[#This Row],[Nodes created]],Table1[[#This Row],[Nodes created]],Table5[[#This Row],[Nodes created]],Table6[[#This Row],[Nodes created]],Table7[[#This Row],[Nodes created]],Table8[[#This Row],[Nodes created]],)</f>
-        <v>58209.285714285717</v>
+        <v>52534.142857142855</v>
       </c>
       <c r="D10" s="5">
         <f>AVERAGE(Table2[[#This Row],[Nodes visited]],Table3[[#This Row],[Nodes visited]],Table4[[#This Row],[Nodes visited]],Table1[[#This Row],[Nodes visited]],Table5[[#This Row],[Nodes visited]],Table6[[#This Row],[Nodes visited]],Table7[[#This Row],[Nodes visited]],Table8[[#This Row],[Nodes visited]],)</f>
